--- a/stock-unique.xlsx
+++ b/stock-unique.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5800" uniqueCount="4438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5801" uniqueCount="4439">
   <si>
     <t>id</t>
   </si>
@@ -13333,6 +13333,9 @@
   </si>
   <si>
     <t>http://www.moneycontrol.com/india/stockpricequote/finance-investments/signetindustries/SF22</t>
+  </si>
+  <si>
+    <t>SEP02</t>
   </si>
 </sst>
 </file>
@@ -13803,7 +13806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14127,7 +14130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
+      <selection activeCell="A1012" sqref="A1012"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -46452,8 +46457,8 @@
       </c>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1011" s="3">
-        <v>37135</v>
+      <c r="A1011" s="3" t="s">
+        <v>4438</v>
       </c>
       <c r="B1011" t="s">
         <v>3652</v>
